--- a/Spatiotemporal constraints GPS.xlsx
+++ b/Spatiotemporal constraints GPS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365abdn-my.sharepoint.com/personal/r02hh18_abdn_ac_uk/Documents/Hamid PhD work/GitHubAppendixes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365abdn-my.sharepoint.com/personal/r02hh18_abdn_ac_uk/Documents/Hamid PhD work/GitHubAppendixes/GitHub2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{6E11A52A-6F8E-46FF-9A88-BEBBDAE85007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
